--- a/src/media/report.xlsx
+++ b/src/media/report.xlsx
@@ -566,30 +566,480 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>4</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>3</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>14</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>16</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>17</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
